--- a/final_DA_UG_2k_jobs.xlsx
+++ b/final_DA_UG_2k_jobs.xlsx
@@ -1,25 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15145\Desktop\projects\DA_DataScience_jobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8970D6-8AF8-4848-9C8F-E9CA95D3C24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B8BE33-CCB0-41CB-AD90-B68BB27BC1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="All DA DATA" sheetId="1" r:id="rId1"/>
+    <sheet name="ALL DATA" sheetId="1" r:id="rId1"/>
     <sheet name="Tool stats" sheetId="2" r:id="rId2"/>
     <sheet name="Language stats" sheetId="3" r:id="rId3"/>
     <sheet name="Packages stats" sheetId="4" r:id="rId4"/>
     <sheet name="State stats" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -6241,7 +6254,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -6298,7 +6311,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6601,10 +6614,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K1350"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1122" sqref="C1122"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -53879,9 +53893,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -54096,6 +54111,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -54229,6 +54245,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -54334,6 +54351,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
